--- a/public/templates/income-template.xlsx
+++ b/public/templates/income-template.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,15 +410,18 @@
         <v>סכום</v>
       </c>
       <c r="C1" t="str">
+        <v>סוג מסמך</v>
+      </c>
+      <c r="D1" t="str">
         <v>תיאור</v>
       </c>
-      <c r="D1" t="str">
-        <v>מספר חשבונית</v>
-      </c>
       <c r="E1" t="str">
+        <v>מספר מסמך</v>
+      </c>
+      <c r="F1" t="str">
         <v>פטור ממעמ</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>סטטוס</v>
       </c>
     </row>
@@ -430,15 +433,18 @@
         <v>5900</v>
       </c>
       <c r="C2" t="str">
+        <v>tax_invoice</v>
+      </c>
+      <c r="D2" t="str">
         <v>ייעוץ ללקוח א</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>1001</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>false</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>paid</v>
       </c>
     </row>
@@ -450,41 +456,70 @@
         <v>11800</v>
       </c>
       <c r="C3" t="str">
-        <v>פרויקט עיצוב אתר</v>
+        <v>invoice</v>
       </c>
       <c r="D3" t="str">
+        <v>פרויקט עיצוב - חשבונית עסקה</v>
+      </c>
+      <c r="E3" t="str">
         <v>1002</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>false</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>pending</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>2024-01-22</v>
+      </c>
+      <c r="B4">
+        <v>11800</v>
+      </c>
+      <c r="C4" t="str">
+        <v>tax_invoice_receipt</v>
+      </c>
+      <c r="D4" t="str">
+        <v>פרויקט עיצוב - חשבונית מס קבלה</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="str">
+        <v>false</v>
+      </c>
+      <c r="G4" t="str">
+        <v>paid</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v>2024-01-25</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3500</v>
       </c>
-      <c r="C4" t="str">
-        <v>הרצאה</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1003</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="C5" t="str">
+        <v>receipt</v>
+      </c>
+      <c r="D5" t="str">
+        <v>קבלה על תשלום</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1004</v>
+      </c>
+      <c r="F5" t="str">
         <v>true</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G5" t="str">
         <v>paid</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/income-template.xlsx
+++ b/public/templates/income-template.xlsx
@@ -1,58 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="הכנסות" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="תבנית הכנסות" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F81BD"/>
+        <bgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +52,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +289,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,175 +424,277 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>תאריך</v>
-      </c>
-      <c r="B1" t="str">
-        <v>סכום</v>
-      </c>
-      <c r="C1" t="str">
-        <v>סוג מסמך</v>
-      </c>
-      <c r="D1" t="str">
-        <v>תיאור</v>
-      </c>
-      <c r="E1" t="str">
-        <v>מספר מסמך</v>
-      </c>
-      <c r="F1" t="str">
-        <v>פטור ממעמ</v>
-      </c>
-      <c r="G1" t="str">
-        <v>סטטוס</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>תאריך</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>סכום (לפני מע״מ)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>תיאור</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>מספר מסמך</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>סוג מסמך</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>מספר חשבונית עסקה מקושרת</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>לקוח</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>פטור ממע״מ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>סטטוס</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>2024-01-15</v>
-      </c>
-      <c r="B2">
-        <v>5900</v>
-      </c>
-      <c r="C2" t="str">
-        <v>tax_invoice</v>
-      </c>
-      <c r="D2" t="str">
-        <v>ייעוץ ללקוח א</v>
-      </c>
-      <c r="E2" t="str">
-        <v>1001</v>
-      </c>
-      <c r="F2" t="str">
-        <v>false</v>
-      </c>
-      <c r="G2" t="str">
-        <v>paid</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>ייעוץ עסקי - חשבונית עסקה</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>חשבונית עסקה</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>ממתין</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2024-01-20</v>
-      </c>
-      <c r="B3">
-        <v>11800</v>
-      </c>
-      <c r="C3" t="str">
-        <v>invoice</v>
-      </c>
-      <c r="D3" t="str">
-        <v>פרויקט עיצוב - חשבונית עסקה</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1002</v>
-      </c>
-      <c r="F3" t="str">
-        <v>false</v>
-      </c>
-      <c r="G3" t="str">
-        <v>pending</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>ייעוץ עסקי - קבלה</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>חשבונית מס קבלה</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>שולם</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>2024-01-22</v>
-      </c>
-      <c r="B4">
-        <v>11800</v>
-      </c>
-      <c r="C4" t="str">
-        <v>tax_invoice_receipt</v>
-      </c>
-      <c r="D4" t="str">
-        <v>פרויקט עיצוב - חשבונית מס קבלה</v>
-      </c>
-      <c r="E4" t="str">
-        <v>1003</v>
-      </c>
-      <c r="F4" t="str">
-        <v>false</v>
-      </c>
-      <c r="G4" t="str">
-        <v>paid</v>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>הרצאה בכנס</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>חשבונית מס</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>שולם</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>2024-01-25</v>
-      </c>
-      <c r="B5">
-        <v>3500</v>
-      </c>
-      <c r="C5" t="str">
-        <v>receipt</v>
-      </c>
-      <c r="D5" t="str">
-        <v>קבלה על תשלום</v>
-      </c>
-      <c r="E5" t="str">
-        <v>1004</v>
-      </c>
-      <c r="F5" t="str">
-        <v>true</v>
-      </c>
-      <c r="G5" t="str">
-        <v>paid</v>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>פרויקט עיצוב - שלב א</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>חשבונית עסקה</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>ממתין</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>פרויקט עיצוב - שלב א</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>חשבונית מס</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>שולם</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/public/templates/income-template.xlsx
+++ b/public/templates/income-template.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="תבנית הכנסות" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="הסבר" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -70,6 +71,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +448,15 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -492,10 +497,20 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>תנאי תשלום</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>תאריך לתשלום</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>פטור ממע״מ</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>סטטוס</t>
         </is>
@@ -512,7 +527,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>ייעוץ עסקי - חשבונית עסקה</t>
+          <t>ייעוץ עסקי</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -526,13 +541,23 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>לקוח א</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
+          <t>שוטף + 30</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>ממתין</t>
         </is>
@@ -567,13 +592,19 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>לקוח א</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>שולם</t>
         </is>
@@ -604,15 +635,25 @@
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ב</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>שוטף + 45</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>כן</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>שולם</t>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>ממתין</t>
         </is>
       </c>
     </row>
@@ -641,13 +682,23 @@
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ג</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>שוטף + 60</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>ממתין</t>
         </is>
@@ -664,7 +715,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>פרויקט עיצוב - שלב א</t>
+          <t>פרויקט עיצוב - תשלום</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -682,15 +733,211 @@
           <t>1004</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ג</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>שולם</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>ייעוץ שנתי</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>חשבונית מס</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ד</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>ממתין</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>שדה</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>הסבר</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>ערכים אפשריים</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>סוג מסמך</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>סוג המסמך החשבונאי</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>חשבונית עסקה / חשבונית מס / חשבונית מס קבלה / קבלה / הודעת זיכוי</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>מספר חשבונית עסקה מקושרת</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>מספר חשבונית העסקה שמסמך זה סוגר (רלוונטי רק לחשבוניות מס)</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>מספר מסמך קיים או ריק</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>תנאי תשלום</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>תנאי התשלום המוסכמים</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>מיידי / שוטף / שוטף + 30 / שוטף + 45 / שוטף + 60 / שוטף + 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>תאריך לתשלום</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>תאריך ספציפי לתשלום (במקום תנאי תשלום)</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>YYYY-MM-DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>פטור ממע״מ</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>האם העסקה פטורה ממע״מ</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>כן / לא</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>סטטוס</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>סטטוס התשלום</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>ממתין / שולם / שולם חלקית</t>
         </is>
       </c>
     </row>
